--- a/src/app/app-playloader/data/sample.01.xlsx
+++ b/src/app/app-playloader/data/sample.01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeylam/repo/njs/njstool/src/app/app-playloader/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6261DBB7-531A-4144-9A3A-C25BE8AE0ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A9B072-1299-A347-80A4-9E2AFF821E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="5840" windowWidth="24380" windowHeight="10420" xr2:uid="{EA9BDBA2-0CC1-8A42-AB5A-3B400F638747}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Field</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Record-1</t>
+  </si>
+  <si>
+    <t>123-456-222</t>
+  </si>
+  <si>
+    <t>list.str</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +489,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -491,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>87654321</v>
@@ -524,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -535,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>

--- a/src/app/app-playloader/data/sample.01.xlsx
+++ b/src/app/app-playloader/data/sample.01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joeylam/repo/njs/njstool/src/app/app-playloader/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A9B072-1299-A347-80A4-9E2AFF821E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF0C6E-8DC4-544D-B05D-46CF9FBC408A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="5840" windowWidth="24380" windowHeight="10420" xr2:uid="{EA9BDBA2-0CC1-8A42-AB5A-3B400F638747}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Field</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>list.str</t>
+  </si>
+  <si>
+    <t>address.home.line3</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A7669F-1EAC-E44D-B511-C760B8B4C77D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,12 +585,20 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
       </c>
     </row>
